--- a/TestData/addUsers.xlsx
+++ b/TestData/addUsers.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -428,6 +428,7 @@
     <col width="14.28515625" customWidth="1" min="5" max="5"/>
     <col width="12.28515625" customWidth="1" min="6" max="6"/>
     <col width="10.7109375" customWidth="1" min="12" max="12"/>
+    <col width="19.140625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -494,6 +495,11 @@
       <c r="M1" t="inlineStr">
         <is>
           <t>Cpassword</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>result</t>
         </is>
       </c>
     </row>
